--- a/datam.xlsx
+++ b/datam.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\孙曼\UW\电路理论233\lab\git\EE233lab4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Togem\Desktop\UW\EE233lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="405" yWindow="75" windowWidth="13410" windowHeight="4200" activeTab="2"/>
+    <workbookView xWindow="410" yWindow="80" windowWidth="13410" windowHeight="4200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="25%" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="ana#5" sheetId="4" r:id="rId4"/>
     <sheet name="只测了equalizer的ana#5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -390,7 +390,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -582,7 +581,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -755,6 +753,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -790,6 +805,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -966,15 +998,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:E37"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26:K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -991,7 +1023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1041,7 @@
         <v>0.30479933113473812</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>20</v>
       </c>
@@ -1024,7 +1056,7 @@
         <v>0.14848036158413749</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>50</v>
       </c>
@@ -1039,7 +1071,7 @@
         <v>0.71825111781288897</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>100</v>
       </c>
@@ -1054,7 +1086,7 @@
         <v>1.9382002601611283</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>200</v>
       </c>
@@ -1069,7 +1101,7 @@
         <v>4.1805463430133791</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>500</v>
       </c>
@@ -1084,7 +1116,7 @@
         <v>4.4685027570262283</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1000</v>
       </c>
@@ -1099,7 +1131,7 @@
         <v>1.1953641000697954</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2000</v>
       </c>
@@ -1114,7 +1146,7 @@
         <v>0.57927391870633116</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>5000</v>
       </c>
@@ -1129,7 +1161,7 @@
         <v>0.43803682895659496</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10000</v>
       </c>
@@ -1144,7 +1176,7 @@
         <v>0.29446513641412758</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>20000</v>
       </c>
@@ -1159,7 +1191,7 @@
         <v>-0.5992644675488642</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>50000</v>
       </c>
@@ -1174,7 +1206,7 @@
         <v>-0.15106275780891798</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1192,7 +1224,7 @@
         <v>0.30479933113473812</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>20</v>
       </c>
@@ -1207,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>50</v>
       </c>
@@ -1222,7 +1254,7 @@
         <v>0.15650675023913052</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>100</v>
       </c>
@@ -1237,7 +1269,7 @@
         <v>0.45327969271887569</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>200</v>
       </c>
@@ -1252,7 +1284,7 @@
         <v>1.7142422641316524</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>500</v>
       </c>
@@ -1267,7 +1299,7 @@
         <v>4.8381708709064908</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1000</v>
       </c>
@@ -1282,7 +1314,7 @@
         <v>5.6239150135801852</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2000</v>
       </c>
@@ -1297,7 +1329,7 @@
         <v>3.0522032641231664</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>5000</v>
       </c>
@@ -1312,7 +1344,7 @@
         <v>0.66000520205850688</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>10000</v>
       </c>
@@ -1327,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>20000</v>
       </c>
@@ -1342,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>50000</v>
       </c>
@@ -1357,7 +1389,7 @@
         <v>0.29446513641412758</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1374,8 +1406,21 @@
         <f t="shared" si="0"/>
         <v>0.31024332356495116</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H26" s="1">
+        <v>10</v>
+      </c>
+      <c r="I26" s="1">
+        <v>220</v>
+      </c>
+      <c r="J26" s="1">
+        <v>228</v>
+      </c>
+      <c r="K26">
+        <f>ROUND(E26,3)</f>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>20</v>
       </c>
@@ -1389,8 +1434,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H27">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2">
+        <v>224</v>
+      </c>
+      <c r="J27" s="2">
+        <v>224</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27:K37" si="1">ROUND(E27,3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>50</v>
       </c>
@@ -1404,8 +1462,21 @@
         <f t="shared" si="0"/>
         <v>0.15373657332581911</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H28">
+        <v>50</v>
+      </c>
+      <c r="I28" s="2">
+        <v>224</v>
+      </c>
+      <c r="J28" s="2">
+        <v>228</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>100</v>
       </c>
@@ -1419,8 +1490,21 @@
         <f t="shared" si="0"/>
         <v>0.46130608137386797</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29" s="2">
+        <v>220</v>
+      </c>
+      <c r="J29" s="2">
+        <v>232</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>0.46100000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>200</v>
       </c>
@@ -1434,8 +1518,21 @@
         <f t="shared" si="0"/>
         <v>0.59926446754886409</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H30">
+        <v>200</v>
+      </c>
+      <c r="I30" s="2">
+        <v>224</v>
+      </c>
+      <c r="J30" s="2">
+        <v>240</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>0.59899999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>500</v>
       </c>
@@ -1449,8 +1546,21 @@
         <f t="shared" si="0"/>
         <v>0.74283616009133158</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H31">
+        <v>500</v>
+      </c>
+      <c r="I31" s="2">
+        <v>224</v>
+      </c>
+      <c r="J31" s="2">
+        <v>244</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1000</v>
       </c>
@@ -1464,8 +1574,21 @@
         <f t="shared" si="0"/>
         <v>1.784463686835309</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="H32">
+        <v>1000</v>
+      </c>
+      <c r="I32" s="2">
+        <v>228</v>
+      </c>
+      <c r="J32" s="2">
+        <v>280</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>1.784</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>2000</v>
       </c>
@@ -1479,8 +1602,21 @@
         <f t="shared" si="0"/>
         <v>3.8703030194484276</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="H33">
+        <v>2000</v>
+      </c>
+      <c r="I33" s="2">
+        <v>228</v>
+      </c>
+      <c r="J33" s="2">
+        <v>356</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>5000</v>
       </c>
@@ -1494,8 +1630,21 @@
         <f t="shared" si="0"/>
         <v>4.7070244004000692</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="H34">
+        <v>5000</v>
+      </c>
+      <c r="I34" s="2">
+        <v>228</v>
+      </c>
+      <c r="J34" s="2">
+        <v>392</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>4.7069999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>10000</v>
       </c>
@@ -1509,8 +1658,21 @@
         <f t="shared" si="0"/>
         <v>0.15106275780891815</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="H35">
+        <v>10000</v>
+      </c>
+      <c r="I35" s="2">
+        <v>228</v>
+      </c>
+      <c r="J35" s="2">
+        <v>232</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>20000</v>
       </c>
@@ -1524,8 +1686,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="H36">
+        <v>20000</v>
+      </c>
+      <c r="I36" s="2">
+        <v>228</v>
+      </c>
+      <c r="J36" s="2">
+        <v>228</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>50000</v>
       </c>
@@ -1538,6 +1713,19 @@
       <c r="E37">
         <f t="shared" si="0"/>
         <v>-0.15373657332582014</v>
+      </c>
+      <c r="H37">
+        <v>50000</v>
+      </c>
+      <c r="I37" s="2">
+        <v>228</v>
+      </c>
+      <c r="J37" s="2">
+        <v>224</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>-0.154</v>
       </c>
     </row>
   </sheetData>
@@ -1548,15 +1736,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:E37"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26:K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1573,7 +1761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1590,8 +1778,21 @@
         <f>20*LOG10(D2/C2)</f>
         <v>0.15106275780891815</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H2" s="1">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1">
+        <v>228</v>
+      </c>
+      <c r="J2" s="1">
+        <v>232</v>
+      </c>
+      <c r="K2">
+        <f>ROUND(E2,3)</f>
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>20</v>
       </c>
@@ -1605,8 +1806,21 @@
         <f t="shared" ref="E3:E37" si="0">20*LOG10(D3/C3)</f>
         <v>0.46130608137386797</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>220</v>
+      </c>
+      <c r="J3">
+        <v>232</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K13" si="1">ROUND(E3,3)</f>
+        <v>0.46100000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>50</v>
       </c>
@@ -1620,8 +1834,21 @@
         <f t="shared" si="0"/>
         <v>0.46130608137386797</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>220</v>
+      </c>
+      <c r="J4">
+        <v>232</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>0.46100000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>100</v>
       </c>
@@ -1635,8 +1862,21 @@
         <f t="shared" si="0"/>
         <v>-0.14848036158413774</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>236</v>
+      </c>
+      <c r="J5">
+        <v>232</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>-0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>200</v>
       </c>
@@ -1650,8 +1890,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H6">
+        <v>200</v>
+      </c>
+      <c r="I6">
+        <v>232</v>
+      </c>
+      <c r="J6">
+        <v>232</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>500</v>
       </c>
@@ -1665,8 +1918,21 @@
         <f t="shared" si="0"/>
         <v>0.46130608137386797</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H7">
+        <v>500</v>
+      </c>
+      <c r="I7">
+        <v>220</v>
+      </c>
+      <c r="J7">
+        <v>232</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0.46100000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1000</v>
       </c>
@@ -1680,8 +1946,21 @@
         <f t="shared" si="0"/>
         <v>0.14598477482998845</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H8">
+        <v>1000</v>
+      </c>
+      <c r="I8">
+        <v>236</v>
+      </c>
+      <c r="J8">
+        <v>240</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2000</v>
       </c>
@@ -1695,8 +1974,21 @@
         <f t="shared" si="0"/>
         <v>0.52205605128410293</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H9">
+        <v>2000</v>
+      </c>
+      <c r="I9">
+        <v>226</v>
+      </c>
+      <c r="J9">
+        <v>240</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0.52200000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>5000</v>
       </c>
@@ -1710,8 +2002,21 @@
         <f t="shared" si="0"/>
         <v>0.14848036158413749</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H10">
+        <v>5000</v>
+      </c>
+      <c r="I10">
+        <v>232</v>
+      </c>
+      <c r="J10">
+        <v>236</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10000</v>
       </c>
@@ -1725,8 +2030,21 @@
         <f t="shared" si="0"/>
         <v>-0.94849299856276226</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H11">
+        <v>10000</v>
+      </c>
+      <c r="I11">
+        <v>232</v>
+      </c>
+      <c r="J11">
+        <v>208</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>-0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>20000</v>
       </c>
@@ -1740,8 +2058,21 @@
         <f t="shared" si="0"/>
         <v>-2.0817719527035967</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H12">
+        <v>20000</v>
+      </c>
+      <c r="I12">
+        <v>244</v>
+      </c>
+      <c r="J12">
+        <v>192</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>-2.0819999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>50000</v>
       </c>
@@ -1755,8 +2086,21 @@
         <f t="shared" si="0"/>
         <v>-1.9382002601611279</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H13">
+        <v>50000</v>
+      </c>
+      <c r="I13">
+        <v>240</v>
+      </c>
+      <c r="J13">
+        <v>192</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>-1.9379999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1773,8 +2117,21 @@
         <f t="shared" si="0"/>
         <v>0.46130608137386797</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H14" s="1">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1">
+        <v>220</v>
+      </c>
+      <c r="J14" s="1">
+        <v>232</v>
+      </c>
+      <c r="K14">
+        <f>ROUND(E14,3)</f>
+        <v>0.46100000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>20</v>
       </c>
@@ -1788,8 +2145,21 @@
         <f t="shared" si="0"/>
         <v>-0.14848036158413774</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2">
+        <v>236</v>
+      </c>
+      <c r="J15" s="2">
+        <v>232</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ref="K15:K25" si="2">ROUND(E15,3)</f>
+        <v>-0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>50</v>
       </c>
@@ -1803,8 +2173,21 @@
         <f t="shared" si="0"/>
         <v>-0.15106275780891798</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="I16" s="2">
+        <v>232</v>
+      </c>
+      <c r="J16" s="2">
+        <v>228</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>-0.151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>100</v>
       </c>
@@ -1818,8 +2201,21 @@
         <f t="shared" si="0"/>
         <v>0.15106275780891815</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17" s="2">
+        <v>228</v>
+      </c>
+      <c r="J17" s="2">
+        <v>232</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>200</v>
       </c>
@@ -1833,8 +2229,21 @@
         <f t="shared" si="0"/>
         <v>0.15373657332581911</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H18">
+        <v>200</v>
+      </c>
+      <c r="I18" s="2">
+        <v>224</v>
+      </c>
+      <c r="J18" s="2">
+        <v>228</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>500</v>
       </c>
@@ -1848,8 +2257,21 @@
         <f t="shared" si="0"/>
         <v>0.43803682895659496</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H19">
+        <v>500</v>
+      </c>
+      <c r="I19" s="2">
+        <v>232</v>
+      </c>
+      <c r="J19" s="2">
+        <v>244</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1000</v>
       </c>
@@ -1863,8 +2285,21 @@
         <f t="shared" si="0"/>
         <v>0.46130608137386797</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H20">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="2">
+        <v>220</v>
+      </c>
+      <c r="J20" s="2">
+        <v>232</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>0.46100000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2000</v>
       </c>
@@ -1878,8 +2313,21 @@
         <f t="shared" si="0"/>
         <v>0.6097864429580071</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H21">
+        <v>2000</v>
+      </c>
+      <c r="I21" s="2">
+        <v>220</v>
+      </c>
+      <c r="J21" s="2">
+        <v>236</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>5000</v>
       </c>
@@ -1893,8 +2341,21 @@
         <f t="shared" si="0"/>
         <v>0.45327969271887569</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H22">
+        <v>5000</v>
+      </c>
+      <c r="I22" s="2">
+        <v>224</v>
+      </c>
+      <c r="J22" s="2">
+        <v>236</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>10000</v>
       </c>
@@ -1908,8 +2369,21 @@
         <f t="shared" si="0"/>
         <v>-1.1171563493000185</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H23">
+        <v>10000</v>
+      </c>
+      <c r="I23" s="2">
+        <v>232</v>
+      </c>
+      <c r="J23" s="2">
+        <v>204</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>-1.117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>20000</v>
       </c>
@@ -1923,8 +2397,21 @@
         <f t="shared" si="0"/>
         <v>-0.91514981121350236</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H24">
+        <v>20000</v>
+      </c>
+      <c r="I24" s="2">
+        <v>240</v>
+      </c>
+      <c r="J24" s="2">
+        <v>216</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>-0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>50000</v>
       </c>
@@ -1938,8 +2425,21 @@
         <f t="shared" si="0"/>
         <v>-1.4646382706884722</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H25">
+        <v>50000</v>
+      </c>
+      <c r="I25" s="2">
+        <v>232</v>
+      </c>
+      <c r="J25" s="2">
+        <v>196</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>-1.4650000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1956,8 +2456,21 @@
         <f t="shared" si="0"/>
         <v>0.75577121778799505</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H26" s="1">
+        <v>10</v>
+      </c>
+      <c r="I26" s="1">
+        <v>220</v>
+      </c>
+      <c r="J26" s="1">
+        <v>240</v>
+      </c>
+      <c r="K26">
+        <f>ROUND(E26,3)</f>
+        <v>0.75600000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>20</v>
       </c>
@@ -1971,8 +2484,21 @@
         <f t="shared" si="0"/>
         <v>-0.44552789422304506</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H27">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2">
+        <v>240</v>
+      </c>
+      <c r="J27" s="2">
+        <v>228</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27:K37" si="3">ROUND(E27,3)</f>
+        <v>-0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>50</v>
       </c>
@@ -1986,8 +2512,21 @@
         <f t="shared" si="0"/>
         <v>-0.15373657332582014</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H28">
+        <v>50</v>
+      </c>
+      <c r="I28" s="2">
+        <v>228</v>
+      </c>
+      <c r="J28" s="2">
+        <v>224</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>-0.154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>100</v>
       </c>
@@ -2001,8 +2540,21 @@
         <f t="shared" si="0"/>
         <v>0.15373657332581911</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29" s="2">
+        <v>224</v>
+      </c>
+      <c r="J29" s="2">
+        <v>228</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>200</v>
       </c>
@@ -2016,8 +2568,21 @@
         <f t="shared" si="0"/>
         <v>0.14848036158413749</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H30">
+        <v>200</v>
+      </c>
+      <c r="I30" s="2">
+        <v>232</v>
+      </c>
+      <c r="J30" s="2">
+        <v>236</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>500</v>
       </c>
@@ -2031,8 +2596,21 @@
         <f t="shared" si="0"/>
         <v>0.75577121778799505</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H31">
+        <v>500</v>
+      </c>
+      <c r="I31" s="2">
+        <v>220</v>
+      </c>
+      <c r="J31" s="2">
+        <v>240</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>0.75600000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1000</v>
       </c>
@@ -2046,8 +2624,21 @@
         <f t="shared" si="0"/>
         <v>0.14848036158413749</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="H32">
+        <v>1000</v>
+      </c>
+      <c r="I32" s="2">
+        <v>232</v>
+      </c>
+      <c r="J32" s="2">
+        <v>236</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>2000</v>
       </c>
@@ -2061,8 +2652,21 @@
         <f t="shared" si="0"/>
         <v>0.13897719910655648</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="H33">
+        <v>2000</v>
+      </c>
+      <c r="I33" s="2">
+        <v>248</v>
+      </c>
+      <c r="J33" s="2">
+        <v>252</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>5000</v>
       </c>
@@ -2076,8 +2680,21 @@
         <f t="shared" si="0"/>
         <v>0.29446513641412758</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="H34">
+        <v>5000</v>
+      </c>
+      <c r="I34" s="2">
+        <v>232</v>
+      </c>
+      <c r="J34" s="2">
+        <v>240</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>10000</v>
       </c>
@@ -2091,8 +2708,21 @@
         <f t="shared" si="0"/>
         <v>-1.4926723659380841</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="H35">
+        <v>10000</v>
+      </c>
+      <c r="I35" s="2">
+        <v>228</v>
+      </c>
+      <c r="J35" s="2">
+        <v>192</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>-1.4930000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>20000</v>
       </c>
@@ -2106,8 +2736,21 @@
         <f t="shared" si="0"/>
         <v>-0.89934291033046376</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="H36">
+        <v>20000</v>
+      </c>
+      <c r="I36" s="2">
+        <v>244</v>
+      </c>
+      <c r="J36" s="2">
+        <v>220</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>-0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>50000</v>
       </c>
@@ -2120,6 +2763,19 @@
       <c r="E37">
         <f t="shared" si="0"/>
         <v>-1.8684337032447018</v>
+      </c>
+      <c r="H37">
+        <v>50000</v>
+      </c>
+      <c r="I37" s="2">
+        <v>248</v>
+      </c>
+      <c r="J37" s="2">
+        <v>200</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>-1.8680000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2130,15 +2786,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2155,7 +2811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2172,8 +2828,21 @@
         <f>20*LOG10(D2/C2)</f>
         <v>-0.15373657332582014</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H2" s="1">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1">
+        <v>228</v>
+      </c>
+      <c r="J2" s="1">
+        <v>224</v>
+      </c>
+      <c r="K2">
+        <f>ROUND(E2, 3)</f>
+        <v>-0.154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>20</v>
       </c>
@@ -2187,8 +2856,21 @@
         <f t="shared" ref="E3:E37" si="0">20*LOG10(D3/C3)</f>
         <v>0.31024332356495116</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>220</v>
+      </c>
+      <c r="J3">
+        <v>228</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K37" si="1">ROUND(E3, 3)</f>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>50</v>
       </c>
@@ -2202,8 +2884,21 @@
         <f t="shared" si="0"/>
         <v>0.15650675023913052</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>220</v>
+      </c>
+      <c r="J4">
+        <v>224</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>100</v>
       </c>
@@ -2217,8 +2912,21 @@
         <f t="shared" si="0"/>
         <v>-1.182429042373133</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>220</v>
+      </c>
+      <c r="J5">
+        <v>192</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>-1.1819999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>200</v>
       </c>
@@ -2232,8 +2940,21 @@
         <f t="shared" si="0"/>
         <v>-2.7660539633256285</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H6">
+        <v>200</v>
+      </c>
+      <c r="I6">
+        <v>220</v>
+      </c>
+      <c r="J6">
+        <v>160</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>-2.766</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>500</v>
       </c>
@@ -2247,8 +2968,21 @@
         <f t="shared" si="0"/>
         <v>-2.7080834057292993</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H7">
+        <v>500</v>
+      </c>
+      <c r="I7">
+        <v>224</v>
+      </c>
+      <c r="J7">
+        <v>164</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>-2.7080000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1000</v>
       </c>
@@ -2262,8 +2996,21 @@
         <f t="shared" si="0"/>
         <v>-1.583624920952496</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H8">
+        <v>1000</v>
+      </c>
+      <c r="I8">
+        <v>240</v>
+      </c>
+      <c r="J8">
+        <v>200</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>-1.5840000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2000</v>
       </c>
@@ -2277,8 +3024,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H9">
+        <v>2000</v>
+      </c>
+      <c r="I9">
+        <v>224</v>
+      </c>
+      <c r="J9">
+        <v>224</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>5000</v>
       </c>
@@ -2292,8 +3052,21 @@
         <f t="shared" si="0"/>
         <v>-0.73033667651524981</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H10">
+        <v>5000</v>
+      </c>
+      <c r="I10">
+        <v>248</v>
+      </c>
+      <c r="J10">
+        <v>228</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>-0.73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10000</v>
       </c>
@@ -2307,8 +3080,21 @@
         <f t="shared" si="0"/>
         <v>-1.7922154853311389</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H11">
+        <v>10000</v>
+      </c>
+      <c r="I11">
+        <v>236</v>
+      </c>
+      <c r="J11">
+        <v>192</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>-1.792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>20000</v>
       </c>
@@ -2322,8 +3108,21 @@
         <f t="shared" si="0"/>
         <v>-0.62068467479937572</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H12">
+        <v>20000</v>
+      </c>
+      <c r="I12">
+        <v>232</v>
+      </c>
+      <c r="J12">
+        <v>216</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>-0.621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>50000</v>
       </c>
@@ -2337,8 +3136,21 @@
         <f t="shared" si="0"/>
         <v>-0.30479933113473695</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H13">
+        <v>50000</v>
+      </c>
+      <c r="I13">
+        <v>232</v>
+      </c>
+      <c r="J13">
+        <v>224</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>-0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -2355,8 +3167,21 @@
         <f t="shared" si="0"/>
         <v>-0.46130608137386869</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H14" s="1">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1">
+        <v>232</v>
+      </c>
+      <c r="J14" s="1">
+        <v>220</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>-0.46100000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>20</v>
       </c>
@@ -2370,8 +3195,21 @@
         <f t="shared" si="0"/>
         <v>-0.48718691718889384</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2">
+        <v>220</v>
+      </c>
+      <c r="J15" s="2">
+        <v>208</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>-0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>50</v>
       </c>
@@ -2385,8 +3223,21 @@
         <f t="shared" si="0"/>
         <v>-3.1194594069653747</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="I16" s="2">
+        <v>232</v>
+      </c>
+      <c r="J16" s="2">
+        <v>162</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>-3.1190000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>100</v>
       </c>
@@ -2400,8 +3251,21 @@
         <f t="shared" si="0"/>
         <v>-4.4628643993871036</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17" s="2">
+        <v>224</v>
+      </c>
+      <c r="J17" s="2">
+        <v>134</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>-4.4630000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>200</v>
       </c>
@@ -2415,8 +3279,21 @@
         <f t="shared" si="0"/>
         <v>-5.58980635615743</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H18">
+        <v>200</v>
+      </c>
+      <c r="I18" s="2">
+        <v>236</v>
+      </c>
+      <c r="J18" s="2">
+        <v>124</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>-5.59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>500</v>
       </c>
@@ -2430,8 +3307,21 @@
         <f t="shared" si="0"/>
         <v>-5.4213354457307599</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H19">
+        <v>500</v>
+      </c>
+      <c r="I19" s="2">
+        <v>224</v>
+      </c>
+      <c r="J19" s="2">
+        <v>120</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>-5.4210000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1000</v>
       </c>
@@ -2445,8 +3335,21 @@
         <f t="shared" si="0"/>
         <v>-5.7261347768654964</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H20">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="2">
+        <v>232</v>
+      </c>
+      <c r="J20" s="2">
+        <v>120</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>-5.726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2000</v>
       </c>
@@ -2460,8 +3363,21 @@
         <f t="shared" si="0"/>
         <v>-4.8982810737009954</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H21">
+        <v>2000</v>
+      </c>
+      <c r="I21" s="2">
+        <v>232</v>
+      </c>
+      <c r="J21" s="2">
+        <v>132</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>-4.8979999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>5000</v>
       </c>
@@ -2475,8 +3391,21 @@
         <f t="shared" si="0"/>
         <v>-0.5992644675488642</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H22">
+        <v>5000</v>
+      </c>
+      <c r="I22" s="2">
+        <v>240</v>
+      </c>
+      <c r="J22" s="2">
+        <v>224</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>-0.59899999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>10000</v>
       </c>
@@ -2490,8 +3419,21 @@
         <f t="shared" si="0"/>
         <v>-0.15106275780891798</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H23">
+        <v>10000</v>
+      </c>
+      <c r="I23" s="2">
+        <v>232</v>
+      </c>
+      <c r="J23" s="2">
+        <v>228</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>-0.151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>20000</v>
       </c>
@@ -2505,8 +3447,21 @@
         <f t="shared" si="0"/>
         <v>-0.15106275780891798</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H24">
+        <v>20000</v>
+      </c>
+      <c r="I24" s="2">
+        <v>232</v>
+      </c>
+      <c r="J24" s="2">
+        <v>228</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>-0.151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>50000</v>
       </c>
@@ -2520,8 +3475,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H25">
+        <v>50000</v>
+      </c>
+      <c r="I25" s="2">
+        <v>228</v>
+      </c>
+      <c r="J25" s="2">
+        <v>228</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -2538,8 +3506,21 @@
         <f t="shared" si="0"/>
         <v>-0.43803682895659551</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H26" s="1">
+        <v>10</v>
+      </c>
+      <c r="I26" s="1">
+        <v>244</v>
+      </c>
+      <c r="J26" s="1">
+        <v>232</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>-0.438</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>20</v>
       </c>
@@ -2553,8 +3534,21 @@
         <f t="shared" si="0"/>
         <v>-0.32173639786909614</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H27">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2">
+        <v>220</v>
+      </c>
+      <c r="J27" s="2">
+        <v>212</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>-0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>50</v>
       </c>
@@ -2568,8 +3562,21 @@
         <f t="shared" si="0"/>
         <v>-0.46130608137386869</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H28">
+        <v>50</v>
+      </c>
+      <c r="I28" s="2">
+        <v>232</v>
+      </c>
+      <c r="J28" s="2">
+        <v>220</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>-0.46100000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>100</v>
       </c>
@@ -2583,8 +3590,21 @@
         <f t="shared" si="0"/>
         <v>-0.65585026792614975</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29" s="2">
+        <v>220</v>
+      </c>
+      <c r="J29" s="2">
+        <v>204</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>-0.65600000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>200</v>
       </c>
@@ -2598,8 +3618,21 @@
         <f t="shared" si="0"/>
         <v>-1.0033321893146039</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H30">
+        <v>200</v>
+      </c>
+      <c r="I30" s="2">
+        <v>220</v>
+      </c>
+      <c r="J30" s="2">
+        <v>196</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>-1.0029999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>500</v>
       </c>
@@ -2613,8 +3646,21 @@
         <f t="shared" si="0"/>
         <v>-1.159838939553735</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H31">
+        <v>500</v>
+      </c>
+      <c r="I31" s="2">
+        <v>224</v>
+      </c>
+      <c r="J31" s="2">
+        <v>196</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>-1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1000</v>
       </c>
@@ -2628,8 +3674,21 @@
         <f t="shared" si="0"/>
         <v>-2.2394751888786462</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="H32">
+        <v>1000</v>
+      </c>
+      <c r="I32" s="2">
+        <v>220</v>
+      </c>
+      <c r="J32" s="2">
+        <v>170</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>-2.2389999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>2000</v>
       </c>
@@ -2643,8 +3702,21 @@
         <f t="shared" si="0"/>
         <v>-3.2115818575486736</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="H33">
+        <v>2000</v>
+      </c>
+      <c r="I33" s="2">
+        <v>220</v>
+      </c>
+      <c r="J33" s="2">
+        <v>152</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>-3.2120000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>5000</v>
       </c>
@@ -2658,8 +3730,21 @@
         <f t="shared" si="0"/>
         <v>-3.2545459499539948</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="H34">
+        <v>5000</v>
+      </c>
+      <c r="I34" s="2">
+        <v>224</v>
+      </c>
+      <c r="J34" s="2">
+        <v>154</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>-3.2549999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>10000</v>
       </c>
@@ -2673,8 +3758,21 @@
         <f t="shared" si="0"/>
         <v>-1.9750830741285346</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="H35">
+        <v>10000</v>
+      </c>
+      <c r="I35" s="2">
+        <v>236</v>
+      </c>
+      <c r="J35" s="2">
+        <v>188</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>-1.9750000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>20000</v>
       </c>
@@ -2688,8 +3786,21 @@
         <f t="shared" si="0"/>
         <v>-0.78304247924296422</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="H36">
+        <v>20000</v>
+      </c>
+      <c r="I36" s="2">
+        <v>232</v>
+      </c>
+      <c r="J36" s="2">
+        <v>212</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>-0.78300000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>50000</v>
       </c>
@@ -2703,12 +3814,25 @@
         <f t="shared" si="0"/>
         <v>-0.15106275780891798</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="H37">
+        <v>50000</v>
+      </c>
+      <c r="I37" s="2">
+        <v>232</v>
+      </c>
+      <c r="J37" s="2">
+        <v>228</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>-0.151</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
@@ -2727,12 +3851,12 @@
       <selection activeCell="E17" sqref="E1:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -2743,7 +3867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>10</v>
       </c>
@@ -2762,7 +3886,7 @@
         <v>2.9887812856848206</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>20</v>
       </c>
@@ -2781,7 +3905,7 @@
         <v>10.201146256293004</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>50</v>
       </c>
@@ -2800,7 +3924,7 @@
         <v>17.657732018073133</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>100</v>
       </c>
@@ -2819,7 +3943,7 @@
         <v>22.498774732165998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>200</v>
       </c>
@@ -2838,7 +3962,7 @@
         <v>25.192746210115121</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>500</v>
       </c>
@@ -2857,7 +3981,7 @@
         <v>26.325399244414363</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1000</v>
       </c>
@@ -2876,7 +4000,7 @@
         <v>26.619864380828488</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2000</v>
       </c>
@@ -2895,7 +4019,7 @@
         <v>26.763436073370954</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5000</v>
       </c>
@@ -2914,7 +4038,7 @@
         <v>26.834341688663951</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10000</v>
       </c>
@@ -2933,7 +4057,7 @@
         <v>26.458636742236223</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>20000</v>
       </c>
@@ -2952,7 +4076,7 @@
         <v>26.096459693622407</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>50000</v>
       </c>
@@ -2971,7 +4095,7 @@
         <v>23.312516507550324</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>100000</v>
       </c>
@@ -2990,7 +4114,7 @@
         <v>17.705608571467721</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>200000</v>
       </c>
@@ -3009,7 +4133,7 @@
         <v>8.6731112187714423</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>500000</v>
       </c>
@@ -3028,7 +4152,7 @@
         <v>-7.8050636001149334</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1000000</v>
       </c>
@@ -3062,12 +4186,12 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -3078,7 +4202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>10</v>
       </c>
@@ -3097,7 +4221,7 @@
         <v>-4.4628643993871036</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>20</v>
       </c>
@@ -3116,7 +4240,7 @@
         <v>-0.32173639786909614</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>50</v>
       </c>
@@ -3135,7 +4259,7 @@
         <v>5.7804217638193167</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>100</v>
       </c>
@@ -3154,7 +4278,7 @@
         <v>10.5361807781754</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>200</v>
       </c>
@@ -3173,7 +4297,7 @@
         <v>13.492213169531482</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>500</v>
       </c>
@@ -3192,7 +4316,7 @@
         <v>14.863473336561446</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1000</v>
       </c>
@@ -3211,7 +4335,7 @@
         <v>15.139239026274112</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2000</v>
       </c>
@@ -3230,7 +4354,7 @@
         <v>14.834439695139373</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5000</v>
       </c>
@@ -3249,7 +4373,7 @@
         <v>15.101718926299004</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10000</v>
       </c>
@@ -3268,7 +4392,7 @@
         <v>14.969107348318742</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>20000</v>
       </c>
@@ -3287,7 +4411,7 @@
         <v>15.252781684107921</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>50000</v>
       </c>
@@ -3306,7 +4430,7 @@
         <v>14.568499673485888</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>100000</v>
       </c>
@@ -3325,7 +4449,7 @@
         <v>12.841303059990924</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>200000</v>
       </c>
@@ -3344,7 +4468,7 @@
         <v>8.5939320958304872</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>500000</v>
       </c>
@@ -3363,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1000000</v>
       </c>
